--- a/papers/papers_to_read/summaries.xlsx
+++ b/papers/papers_to_read/summaries.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF957F0F-2584-4CDF-90C5-B553B0BD1DB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDD657F-94A0-4D33-9239-AD3B2761B338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Summary</t>
   </si>
@@ -79,6 +79,69 @@
 to release updates? What requirements
 and features should they add,
 change, or eliminate?</t>
+  </si>
+  <si>
+    <t>5. Text Summarization Techniques A Brief Survey</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Summarize the main approaches to automatic text summarization. 
+#1: Extract  sentences from the text using features such as word
+and phrase frequency. 
+Method 1.1: Cue Method: relevance calculated based on the presence or absence of words
+Method 1.2: Title Method: The weight of a sentence is computaed as the sum of all the content words appearing in the tile and headings of a text.
+Method 1.3: Location Method: first sentences of document or paragraphs are more relevant.
+Two different approaches for automatic summarization: Extraction and Abstraction
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Extractive summarization methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> work by identifying important sections of the text and generating
+them verbatim. 
+- Frequency driven approach we used the SumBasic algorithm suggested by Vanderwende et al. [46]. 
+- Topic word approach, we applied Edmundson method [11]. 
+- For Latent Semantic Analysis (LSA) we applied Steinberger and Jezek method [45]. 
+- For Bayesian topic modeling, we used Textrank suggested by Mihalcea and Tarau [27].
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Abstractive summarization methods </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aim at producing important material in a new way.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -419,20 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="94.77734375" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="36.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="94.7109375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -440,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -448,7 +511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -456,12 +519,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="346.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="346.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="202.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
